--- a/ドキュメントフォーマット/設計書サンプル/画面設計書/画面設計書_3_4_試験画面.xlsx
+++ b/ドキュメントフォーマット/設計書サンプル/画面設計書/画面設計書_3_4_試験画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\ドキュメントフォーマット\設計書サンプル\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5205684-ED8E-4D0E-809F-2180113DEA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CAB571-C929-4766-B7E4-3FDEB3A246BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="876" yWindow="0" windowWidth="17088" windowHeight="11628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>システム名</t>
   </si>
@@ -73,16 +73,6 @@
   </si>
   <si>
     <t>承認日</t>
-  </si>
-  <si>
-    <t>Gips実践演習</t>
-    <rPh sb="4" eb="6">
-      <t>ジッセン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>エンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面設計書</t>
@@ -147,22 +137,11 @@
     <t>備考</t>
   </si>
   <si>
-    <t>ヘッダ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コンテンツ部</t>
-  </si>
-  <si>
-    <t>文字列</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>〇</t>
@@ -183,17 +162,6 @@
   <si>
     <t>模擬試験Webアプリ</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト画面</t>
@@ -218,33 +186,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フォーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題の内容と選択肢表示</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>解答チェック</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -259,22 +200,6 @@
     <t>採点</t>
     <rPh sb="0" eb="2">
       <t>サイテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題の解答と考えられる番号をチェック</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -297,6 +222,29 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sylph</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題の解答と考えられる番号をチェック(全部チェックしないといけない）</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -773,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -814,24 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,6 +804,210 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -925,195 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2746,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BT9" sqref="BT9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2760,104 +2705,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="32" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="33" t="s">
-        <v>38</v>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="27" t="s">
+        <v>32</v>
       </c>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="34" t="s">
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3798,104 +3743,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
-        <v>32</v>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>28</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24" t="s">
-        <v>8</v>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18" t="s">
+        <v>7</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="25" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="26">
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="20">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27" t="s">
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4923,196 +4868,196 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="17"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="18">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
+        <v>29</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19" t="s">
-        <v>36</v>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33" t="s">
+        <v>30</v>
       </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20" t="s">
-        <v>37</v>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="34" t="s">
+        <v>31</v>
       </c>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="20"/>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20"/>
-      <c r="BX5" s="20"/>
-      <c r="BY5" s="20"/>
-      <c r="BZ5" s="20"/>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="20"/>
-      <c r="CC5" s="20"/>
-      <c r="CD5" s="20"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="20"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20"/>
-      <c r="CI5" s="20"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
@@ -7316,6 +7261,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -7330,14 +7283,6 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7352,10 +7297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK23"/>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE11" sqref="BE11:BP11"/>
+      <selection activeCell="BE12" sqref="BE12:BP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7368,102 +7313,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="32" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="34" t="s">
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -8404,102 +8351,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
-        <v>32</v>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>28</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24" t="s">
-        <v>13</v>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18" t="s">
+        <v>12</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="25" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27" t="s">
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="20">
+        <v>44690</v>
+      </c>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -9527,1858 +9476,1793 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="17"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="18">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
+    </row>
+    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="35"/>
+      <c r="BD6" s="35"/>
+      <c r="BE6" s="35"/>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="35"/>
+      <c r="BH6" s="35"/>
+      <c r="BI6" s="35"/>
+      <c r="BJ6" s="35"/>
+      <c r="BK6" s="35"/>
+      <c r="BL6" s="35"/>
+      <c r="BM6" s="35"/>
+      <c r="BN6" s="35"/>
+      <c r="BO6" s="35"/>
+      <c r="BP6" s="35"/>
+      <c r="BQ6" s="35"/>
+      <c r="BR6" s="35"/>
+      <c r="BS6" s="35"/>
+      <c r="BT6" s="35"/>
+      <c r="BU6" s="35"/>
+      <c r="BV6" s="35"/>
+      <c r="BW6" s="35"/>
+      <c r="BX6" s="35"/>
+      <c r="BY6" s="35"/>
+      <c r="BZ6" s="35"/>
+      <c r="CA6" s="35"/>
+      <c r="CB6" s="35"/>
+      <c r="CC6" s="35"/>
+      <c r="CD6" s="35"/>
+      <c r="CE6" s="35"/>
+      <c r="CF6" s="35"/>
+      <c r="CG6" s="35"/>
+      <c r="CH6" s="35"/>
+      <c r="CI6" s="35"/>
+    </row>
+    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR7" s="41"/>
+      <c r="BS7" s="41"/>
+      <c r="BT7" s="41"/>
+      <c r="BU7" s="41"/>
+      <c r="BV7" s="41"/>
+      <c r="BW7" s="41"/>
+      <c r="BX7" s="41"/>
+      <c r="BY7" s="41"/>
+      <c r="BZ7" s="41"/>
+      <c r="CA7" s="41"/>
+      <c r="CB7" s="41"/>
+      <c r="CC7" s="41"/>
+      <c r="CD7" s="41"/>
+      <c r="CE7" s="41"/>
+      <c r="CF7" s="41"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="41"/>
+    </row>
+    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="45">
+        <f t="shared" ref="B8:B10" si="0">ROW(B8)-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="44"/>
+      <c r="BQ8" s="56"/>
+      <c r="BR8" s="56"/>
+      <c r="BS8" s="56"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="56"/>
+      <c r="BV8" s="56"/>
+      <c r="BW8" s="56"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="56"/>
+      <c r="BZ8" s="56"/>
+      <c r="CA8" s="56"/>
+      <c r="CB8" s="56"/>
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="56"/>
+      <c r="CG8" s="56"/>
+      <c r="CH8" s="56"/>
+      <c r="CI8" s="56"/>
+    </row>
+    <row r="9" spans="1:1024" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20" t="s">
-        <v>33</v>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="59" t="s">
+        <v>13</v>
       </c>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="20"/>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20"/>
-      <c r="BX5" s="20"/>
-      <c r="BY5" s="20"/>
-      <c r="BZ5" s="20"/>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="20"/>
-      <c r="CC5" s="20"/>
-      <c r="CD5" s="20"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="20"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20"/>
-      <c r="CI5" s="20"/>
-    </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="106"/>
-      <c r="BH6" s="106"/>
-      <c r="BI6" s="106"/>
-      <c r="BJ6" s="106"/>
-      <c r="BK6" s="106"/>
-      <c r="BL6" s="106"/>
-      <c r="BM6" s="106"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="106"/>
-      <c r="BP6" s="106"/>
-      <c r="BQ6" s="106"/>
-      <c r="BR6" s="106"/>
-      <c r="BS6" s="106"/>
-      <c r="BT6" s="106"/>
-      <c r="BU6" s="106"/>
-      <c r="BV6" s="106"/>
-      <c r="BW6" s="106"/>
-      <c r="BX6" s="106"/>
-      <c r="BY6" s="106"/>
-      <c r="BZ6" s="106"/>
-      <c r="CA6" s="106"/>
-      <c r="CB6" s="106"/>
-      <c r="CC6" s="106"/>
-      <c r="CD6" s="106"/>
-      <c r="CE6" s="106"/>
-      <c r="CF6" s="106"/>
-      <c r="CG6" s="106"/>
-      <c r="CH6" s="106"/>
-      <c r="CI6" s="106"/>
-    </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="110"/>
-      <c r="AH7" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="110"/>
-      <c r="AK7" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="109"/>
-      <c r="AO7" s="109"/>
-      <c r="AP7" s="109"/>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="113"/>
-      <c r="AS7" s="113"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
-      <c r="AX7" s="111"/>
-      <c r="AY7" s="111"/>
-      <c r="AZ7" s="111"/>
-      <c r="BA7" s="111"/>
-      <c r="BB7" s="111"/>
-      <c r="BC7" s="111"/>
-      <c r="BD7" s="111"/>
-      <c r="BE7" s="111"/>
-      <c r="BF7" s="111"/>
-      <c r="BG7" s="111"/>
-      <c r="BH7" s="111"/>
-      <c r="BI7" s="111"/>
-      <c r="BJ7" s="111"/>
-      <c r="BK7" s="111"/>
-      <c r="BL7" s="111"/>
-      <c r="BM7" s="111"/>
-      <c r="BN7" s="111"/>
-      <c r="BO7" s="111"/>
-      <c r="BP7" s="111"/>
-      <c r="BQ7" s="112" t="s">
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="BR7" s="112"/>
-      <c r="BS7" s="112"/>
-      <c r="BT7" s="112"/>
-      <c r="BU7" s="112"/>
-      <c r="BV7" s="112"/>
-      <c r="BW7" s="112"/>
-      <c r="BX7" s="112"/>
-      <c r="BY7" s="112"/>
-      <c r="BZ7" s="112"/>
-      <c r="CA7" s="112"/>
-      <c r="CB7" s="112"/>
-      <c r="CC7" s="112"/>
-      <c r="CD7" s="112"/>
-      <c r="CE7" s="112"/>
-      <c r="CF7" s="112"/>
-      <c r="CG7" s="112"/>
-      <c r="CH7" s="112"/>
-      <c r="CI7" s="112"/>
+      <c r="BF9" s="57"/>
+      <c r="BG9" s="57"/>
+      <c r="BH9" s="57"/>
+      <c r="BI9" s="57"/>
+      <c r="BJ9" s="57"/>
+      <c r="BK9" s="57"/>
+      <c r="BL9" s="57"/>
+      <c r="BM9" s="57"/>
+      <c r="BN9" s="57"/>
+      <c r="BO9" s="57"/>
+      <c r="BP9" s="57"/>
+      <c r="BQ9" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR9" s="58"/>
+      <c r="BS9" s="58"/>
+      <c r="BT9" s="58"/>
+      <c r="BU9" s="58"/>
+      <c r="BV9" s="58"/>
+      <c r="BW9" s="58"/>
+      <c r="BX9" s="58"/>
+      <c r="BY9" s="58"/>
+      <c r="BZ9" s="58"/>
+      <c r="CA9" s="58"/>
+      <c r="CB9" s="58"/>
+      <c r="CC9" s="58"/>
+      <c r="CD9" s="58"/>
+      <c r="CE9" s="58"/>
+      <c r="CF9" s="58"/>
+      <c r="CG9" s="58"/>
+      <c r="CH9" s="58"/>
+      <c r="CI9" s="58"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="87">
-        <f>ROW(B8)-7</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="95"/>
-      <c r="AV8" s="95"/>
-      <c r="AW8" s="95"/>
-      <c r="AX8" s="95"/>
-      <c r="AY8" s="95"/>
-      <c r="AZ8" s="95"/>
-      <c r="BA8" s="95"/>
-      <c r="BB8" s="95"/>
-      <c r="BC8" s="95"/>
-      <c r="BD8" s="95"/>
-      <c r="BE8" s="95"/>
-      <c r="BF8" s="95"/>
-      <c r="BG8" s="95"/>
-      <c r="BH8" s="95"/>
-      <c r="BI8" s="95"/>
-      <c r="BJ8" s="95"/>
-      <c r="BK8" s="95"/>
-      <c r="BL8" s="95"/>
-      <c r="BM8" s="95"/>
-      <c r="BN8" s="95"/>
-      <c r="BO8" s="95"/>
-      <c r="BP8" s="95"/>
-      <c r="BQ8" s="105"/>
-      <c r="BR8" s="105"/>
-      <c r="BS8" s="105"/>
-      <c r="BT8" s="105"/>
-      <c r="BU8" s="105"/>
-      <c r="BV8" s="105"/>
-      <c r="BW8" s="105"/>
-      <c r="BX8" s="105"/>
-      <c r="BY8" s="105"/>
-      <c r="BZ8" s="105"/>
-      <c r="CA8" s="105"/>
-      <c r="CB8" s="105"/>
-      <c r="CC8" s="105"/>
-      <c r="CD8" s="105"/>
-      <c r="CE8" s="105"/>
-      <c r="CF8" s="105"/>
-      <c r="CG8" s="105"/>
-      <c r="CH8" s="105"/>
-      <c r="CI8" s="105"/>
-    </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="87">
-        <f t="shared" ref="B9:B12" si="0">ROW(B9)-7</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="98"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="98"/>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="98"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="103"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="95"/>
-      <c r="AV9" s="95"/>
-      <c r="AW9" s="95"/>
-      <c r="AX9" s="95"/>
-      <c r="AY9" s="95"/>
-      <c r="AZ9" s="95"/>
-      <c r="BA9" s="95"/>
-      <c r="BB9" s="95"/>
-      <c r="BC9" s="95"/>
-      <c r="BD9" s="95"/>
-      <c r="BE9" s="95"/>
-      <c r="BF9" s="95"/>
-      <c r="BG9" s="95"/>
-      <c r="BH9" s="95"/>
-      <c r="BI9" s="95"/>
-      <c r="BJ9" s="95"/>
-      <c r="BK9" s="95"/>
-      <c r="BL9" s="95"/>
-      <c r="BM9" s="95"/>
-      <c r="BN9" s="95"/>
-      <c r="BO9" s="95"/>
-      <c r="BP9" s="95"/>
-      <c r="BQ9" s="96"/>
-      <c r="BR9" s="96"/>
-      <c r="BS9" s="96"/>
-      <c r="BT9" s="96"/>
-      <c r="BU9" s="96"/>
-      <c r="BV9" s="96"/>
-      <c r="BW9" s="96"/>
-      <c r="BX9" s="96"/>
-      <c r="BY9" s="96"/>
-      <c r="BZ9" s="96"/>
-      <c r="CA9" s="96"/>
-      <c r="CB9" s="96"/>
-      <c r="CC9" s="96"/>
-      <c r="CD9" s="96"/>
-      <c r="CE9" s="96"/>
-      <c r="CF9" s="96"/>
-      <c r="CG9" s="96"/>
-      <c r="CH9" s="96"/>
-      <c r="CI9" s="96"/>
-    </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="87">
+    <row r="10" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="81" t="s">
-        <v>39</v>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="59" t="s">
+        <v>35</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="90" t="s">
-        <v>14</v>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="59" t="s">
+        <v>27</v>
       </c>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="81" t="s">
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="90" t="s">
-        <v>27</v>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="57" t="s">
+        <v>25</v>
       </c>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="81" t="s">
-        <v>40</v>
+      <c r="BF10" s="57"/>
+      <c r="BG10" s="57"/>
+      <c r="BH10" s="57"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="57"/>
+      <c r="BK10" s="57"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="57"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="57"/>
+      <c r="BP10" s="57"/>
+      <c r="BQ10" s="58" t="s">
+        <v>36</v>
       </c>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV10" s="93"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="93"/>
-      <c r="BB10" s="93"/>
-      <c r="BC10" s="93"/>
-      <c r="BD10" s="93"/>
-      <c r="BE10" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF10" s="93"/>
-      <c r="BG10" s="93"/>
-      <c r="BH10" s="93"/>
-      <c r="BI10" s="93"/>
-      <c r="BJ10" s="93"/>
-      <c r="BK10" s="93"/>
-      <c r="BL10" s="93"/>
-      <c r="BM10" s="93"/>
-      <c r="BN10" s="93"/>
-      <c r="BO10" s="93"/>
-      <c r="BP10" s="93"/>
-      <c r="BQ10" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="BR10" s="94"/>
-      <c r="BS10" s="94"/>
-      <c r="BT10" s="94"/>
-      <c r="BU10" s="94"/>
-      <c r="BV10" s="94"/>
-      <c r="BW10" s="94"/>
-      <c r="BX10" s="94"/>
-      <c r="BY10" s="94"/>
-      <c r="BZ10" s="94"/>
-      <c r="CA10" s="94"/>
-      <c r="CB10" s="94"/>
-      <c r="CC10" s="94"/>
-      <c r="CD10" s="94"/>
-      <c r="CE10" s="94"/>
-      <c r="CF10" s="94"/>
-      <c r="CG10" s="94"/>
-      <c r="CH10" s="94"/>
-      <c r="CI10" s="94"/>
+      <c r="BR10" s="58"/>
+      <c r="BS10" s="58"/>
+      <c r="BT10" s="58"/>
+      <c r="BU10" s="58"/>
+      <c r="BV10" s="58"/>
+      <c r="BW10" s="58"/>
+      <c r="BX10" s="58"/>
+      <c r="BY10" s="58"/>
+      <c r="BZ10" s="58"/>
+      <c r="CA10" s="58"/>
+      <c r="CB10" s="58"/>
+      <c r="CC10" s="58"/>
+      <c r="CD10" s="58"/>
+      <c r="CE10" s="58"/>
+      <c r="CF10" s="58"/>
+      <c r="CG10" s="58"/>
+      <c r="CH10" s="58"/>
+      <c r="CI10" s="58"/>
     </row>
-    <row r="11" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="87">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="82"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="82"/>
-      <c r="AX11" s="82"/>
-      <c r="AY11" s="82"/>
-      <c r="AZ11" s="82"/>
-      <c r="BA11" s="82"/>
-      <c r="BB11" s="82"/>
-      <c r="BC11" s="82"/>
-      <c r="BD11" s="83"/>
-      <c r="BE11" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="93"/>
-      <c r="BH11" s="93"/>
-      <c r="BI11" s="93"/>
-      <c r="BJ11" s="93"/>
-      <c r="BK11" s="93"/>
-      <c r="BL11" s="93"/>
-      <c r="BM11" s="93"/>
-      <c r="BN11" s="93"/>
-      <c r="BO11" s="93"/>
-      <c r="BP11" s="93"/>
-      <c r="BQ11" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR11" s="94"/>
-      <c r="BS11" s="94"/>
-      <c r="BT11" s="94"/>
-      <c r="BU11" s="94"/>
-      <c r="BV11" s="94"/>
-      <c r="BW11" s="94"/>
-      <c r="BX11" s="94"/>
-      <c r="BY11" s="94"/>
-      <c r="BZ11" s="94"/>
-      <c r="CA11" s="94"/>
-      <c r="CB11" s="94"/>
-      <c r="CC11" s="94"/>
-      <c r="CD11" s="94"/>
-      <c r="CE11" s="94"/>
-      <c r="CF11" s="94"/>
-      <c r="CG11" s="94"/>
-      <c r="CH11" s="94"/>
-      <c r="CI11" s="94"/>
+    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
+      <c r="BP11" s="61"/>
+      <c r="BQ11" s="67"/>
+      <c r="BR11" s="68"/>
+      <c r="BS11" s="68"/>
+      <c r="BT11" s="68"/>
+      <c r="BU11" s="68"/>
+      <c r="BV11" s="68"/>
+      <c r="BW11" s="68"/>
+      <c r="BX11" s="68"/>
+      <c r="BY11" s="68"/>
+      <c r="BZ11" s="68"/>
+      <c r="CA11" s="68"/>
+      <c r="CB11" s="68"/>
+      <c r="CC11" s="68"/>
+      <c r="CD11" s="68"/>
+      <c r="CE11" s="68"/>
+      <c r="CF11" s="68"/>
+      <c r="CG11" s="68"/>
+      <c r="CH11" s="68"/>
+      <c r="CI11" s="69"/>
     </row>
-    <row r="12" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="87">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="91"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="82"/>
-      <c r="AZ12" s="82"/>
-      <c r="BA12" s="82"/>
-      <c r="BB12" s="82"/>
-      <c r="BC12" s="82"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF12" s="93"/>
-      <c r="BG12" s="93"/>
-      <c r="BH12" s="93"/>
-      <c r="BI12" s="93"/>
-      <c r="BJ12" s="93"/>
-      <c r="BK12" s="93"/>
-      <c r="BL12" s="93"/>
-      <c r="BM12" s="93"/>
-      <c r="BN12" s="93"/>
-      <c r="BO12" s="93"/>
-      <c r="BP12" s="93"/>
-      <c r="BQ12" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="BR12" s="94"/>
-      <c r="BS12" s="94"/>
-      <c r="BT12" s="94"/>
-      <c r="BU12" s="94"/>
-      <c r="BV12" s="94"/>
-      <c r="BW12" s="94"/>
-      <c r="BX12" s="94"/>
-      <c r="BY12" s="94"/>
-      <c r="BZ12" s="94"/>
-      <c r="CA12" s="94"/>
-      <c r="CB12" s="94"/>
-      <c r="CC12" s="94"/>
-      <c r="CD12" s="94"/>
-      <c r="CE12" s="94"/>
-      <c r="CF12" s="94"/>
-      <c r="CG12" s="94"/>
-      <c r="CH12" s="94"/>
-      <c r="CI12" s="94"/>
+    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="60"/>
+      <c r="BB12" s="60"/>
+      <c r="BC12" s="60"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="60"/>
+      <c r="BG12" s="60"/>
+      <c r="BH12" s="60"/>
+      <c r="BI12" s="60"/>
+      <c r="BJ12" s="60"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="60"/>
+      <c r="BN12" s="60"/>
+      <c r="BO12" s="60"/>
+      <c r="BP12" s="61"/>
+      <c r="BQ12" s="67"/>
+      <c r="BR12" s="68"/>
+      <c r="BS12" s="68"/>
+      <c r="BT12" s="68"/>
+      <c r="BU12" s="68"/>
+      <c r="BV12" s="68"/>
+      <c r="BW12" s="68"/>
+      <c r="BX12" s="68"/>
+      <c r="BY12" s="68"/>
+      <c r="BZ12" s="68"/>
+      <c r="CA12" s="68"/>
+      <c r="CB12" s="68"/>
+      <c r="CC12" s="68"/>
+      <c r="CD12" s="68"/>
+      <c r="CE12" s="68"/>
+      <c r="CF12" s="68"/>
+      <c r="CG12" s="68"/>
+      <c r="CH12" s="68"/>
+      <c r="CI12" s="69"/>
     </row>
     <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="81"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="82"/>
-      <c r="BA13" s="82"/>
-      <c r="BB13" s="82"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="83"/>
-      <c r="BE13" s="81"/>
-      <c r="BF13" s="82"/>
-      <c r="BG13" s="82"/>
-      <c r="BH13" s="82"/>
-      <c r="BI13" s="82"/>
-      <c r="BJ13" s="82"/>
-      <c r="BK13" s="82"/>
-      <c r="BL13" s="82"/>
-      <c r="BM13" s="82"/>
-      <c r="BN13" s="82"/>
-      <c r="BO13" s="82"/>
-      <c r="BP13" s="83"/>
-      <c r="BQ13" s="84"/>
-      <c r="BR13" s="85"/>
-      <c r="BS13" s="85"/>
-      <c r="BT13" s="85"/>
-      <c r="BU13" s="85"/>
-      <c r="BV13" s="85"/>
-      <c r="BW13" s="85"/>
-      <c r="BX13" s="85"/>
-      <c r="BY13" s="85"/>
-      <c r="BZ13" s="85"/>
-      <c r="CA13" s="85"/>
-      <c r="CB13" s="85"/>
-      <c r="CC13" s="85"/>
-      <c r="CD13" s="85"/>
-      <c r="CE13" s="85"/>
-      <c r="CF13" s="85"/>
-      <c r="CG13" s="85"/>
-      <c r="CH13" s="85"/>
-      <c r="CI13" s="86"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="60"/>
+      <c r="BC13" s="60"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="60"/>
+      <c r="BG13" s="60"/>
+      <c r="BH13" s="60"/>
+      <c r="BI13" s="60"/>
+      <c r="BJ13" s="60"/>
+      <c r="BK13" s="60"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="60"/>
+      <c r="BN13" s="60"/>
+      <c r="BO13" s="60"/>
+      <c r="BP13" s="61"/>
+      <c r="BQ13" s="67"/>
+      <c r="BR13" s="68"/>
+      <c r="BS13" s="68"/>
+      <c r="BT13" s="68"/>
+      <c r="BU13" s="68"/>
+      <c r="BV13" s="68"/>
+      <c r="BW13" s="68"/>
+      <c r="BX13" s="68"/>
+      <c r="BY13" s="68"/>
+      <c r="BZ13" s="68"/>
+      <c r="CA13" s="68"/>
+      <c r="CB13" s="68"/>
+      <c r="CC13" s="68"/>
+      <c r="CD13" s="68"/>
+      <c r="CE13" s="68"/>
+      <c r="CF13" s="68"/>
+      <c r="CG13" s="68"/>
+      <c r="CH13" s="68"/>
+      <c r="CI13" s="69"/>
     </row>
     <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="91"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="81"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="82"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="82"/>
-      <c r="BA14" s="82"/>
-      <c r="BB14" s="82"/>
-      <c r="BC14" s="82"/>
-      <c r="BD14" s="83"/>
-      <c r="BE14" s="81"/>
-      <c r="BF14" s="82"/>
-      <c r="BG14" s="82"/>
-      <c r="BH14" s="82"/>
-      <c r="BI14" s="82"/>
-      <c r="BJ14" s="82"/>
-      <c r="BK14" s="82"/>
-      <c r="BL14" s="82"/>
-      <c r="BM14" s="82"/>
-      <c r="BN14" s="82"/>
-      <c r="BO14" s="82"/>
-      <c r="BP14" s="83"/>
-      <c r="BQ14" s="84"/>
-      <c r="BR14" s="85"/>
-      <c r="BS14" s="85"/>
-      <c r="BT14" s="85"/>
-      <c r="BU14" s="85"/>
-      <c r="BV14" s="85"/>
-      <c r="BW14" s="85"/>
-      <c r="BX14" s="85"/>
-      <c r="BY14" s="85"/>
-      <c r="BZ14" s="85"/>
-      <c r="CA14" s="85"/>
-      <c r="CB14" s="85"/>
-      <c r="CC14" s="85"/>
-      <c r="CD14" s="85"/>
-      <c r="CE14" s="85"/>
-      <c r="CF14" s="85"/>
-      <c r="CG14" s="85"/>
-      <c r="CH14" s="85"/>
-      <c r="CI14" s="86"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="60"/>
+      <c r="BC14" s="60"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="59"/>
+      <c r="BF14" s="60"/>
+      <c r="BG14" s="60"/>
+      <c r="BH14" s="60"/>
+      <c r="BI14" s="60"/>
+      <c r="BJ14" s="60"/>
+      <c r="BK14" s="60"/>
+      <c r="BL14" s="60"/>
+      <c r="BM14" s="60"/>
+      <c r="BN14" s="60"/>
+      <c r="BO14" s="60"/>
+      <c r="BP14" s="61"/>
+      <c r="BQ14" s="67"/>
+      <c r="BR14" s="68"/>
+      <c r="BS14" s="68"/>
+      <c r="BT14" s="68"/>
+      <c r="BU14" s="68"/>
+      <c r="BV14" s="68"/>
+      <c r="BW14" s="68"/>
+      <c r="BX14" s="68"/>
+      <c r="BY14" s="68"/>
+      <c r="BZ14" s="68"/>
+      <c r="CA14" s="68"/>
+      <c r="CB14" s="68"/>
+      <c r="CC14" s="68"/>
+      <c r="CD14" s="68"/>
+      <c r="CE14" s="68"/>
+      <c r="CF14" s="68"/>
+      <c r="CG14" s="68"/>
+      <c r="CH14" s="68"/>
+      <c r="CI14" s="69"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="64"/>
-      <c r="AS15" s="64"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="81"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="82"/>
-      <c r="BB15" s="82"/>
-      <c r="BC15" s="82"/>
-      <c r="BD15" s="83"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="82"/>
-      <c r="BG15" s="82"/>
-      <c r="BH15" s="82"/>
-      <c r="BI15" s="82"/>
-      <c r="BJ15" s="82"/>
-      <c r="BK15" s="82"/>
-      <c r="BL15" s="82"/>
-      <c r="BM15" s="82"/>
-      <c r="BN15" s="82"/>
-      <c r="BO15" s="82"/>
-      <c r="BP15" s="83"/>
-      <c r="BQ15" s="84"/>
-      <c r="BR15" s="85"/>
-      <c r="BS15" s="85"/>
-      <c r="BT15" s="85"/>
-      <c r="BU15" s="85"/>
-      <c r="BV15" s="85"/>
-      <c r="BW15" s="85"/>
-      <c r="BX15" s="85"/>
-      <c r="BY15" s="85"/>
-      <c r="BZ15" s="85"/>
-      <c r="CA15" s="85"/>
-      <c r="CB15" s="85"/>
-      <c r="CC15" s="85"/>
-      <c r="CD15" s="85"/>
-      <c r="CE15" s="85"/>
-      <c r="CF15" s="85"/>
-      <c r="CG15" s="85"/>
-      <c r="CH15" s="85"/>
-      <c r="CI15" s="86"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="60"/>
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="60"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="60"/>
+      <c r="BB15" s="60"/>
+      <c r="BC15" s="60"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="60"/>
+      <c r="BG15" s="60"/>
+      <c r="BH15" s="60"/>
+      <c r="BI15" s="60"/>
+      <c r="BJ15" s="60"/>
+      <c r="BK15" s="60"/>
+      <c r="BL15" s="60"/>
+      <c r="BM15" s="60"/>
+      <c r="BN15" s="60"/>
+      <c r="BO15" s="60"/>
+      <c r="BP15" s="61"/>
+      <c r="BQ15" s="67"/>
+      <c r="BR15" s="68"/>
+      <c r="BS15" s="68"/>
+      <c r="BT15" s="68"/>
+      <c r="BU15" s="68"/>
+      <c r="BV15" s="68"/>
+      <c r="BW15" s="68"/>
+      <c r="BX15" s="68"/>
+      <c r="BY15" s="68"/>
+      <c r="BZ15" s="68"/>
+      <c r="CA15" s="68"/>
+      <c r="CB15" s="68"/>
+      <c r="CC15" s="68"/>
+      <c r="CD15" s="68"/>
+      <c r="CE15" s="68"/>
+      <c r="CF15" s="68"/>
+      <c r="CG15" s="68"/>
+      <c r="CH15" s="68"/>
+      <c r="CI15" s="69"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="81"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="82"/>
-      <c r="AY16" s="82"/>
-      <c r="AZ16" s="82"/>
-      <c r="BA16" s="82"/>
-      <c r="BB16" s="82"/>
-      <c r="BC16" s="82"/>
-      <c r="BD16" s="83"/>
-      <c r="BE16" s="81"/>
-      <c r="BF16" s="82"/>
-      <c r="BG16" s="82"/>
-      <c r="BH16" s="82"/>
-      <c r="BI16" s="82"/>
-      <c r="BJ16" s="82"/>
-      <c r="BK16" s="82"/>
-      <c r="BL16" s="82"/>
-      <c r="BM16" s="82"/>
-      <c r="BN16" s="82"/>
-      <c r="BO16" s="82"/>
-      <c r="BP16" s="83"/>
-      <c r="BQ16" s="84"/>
-      <c r="BR16" s="85"/>
-      <c r="BS16" s="85"/>
-      <c r="BT16" s="85"/>
-      <c r="BU16" s="85"/>
-      <c r="BV16" s="85"/>
-      <c r="BW16" s="85"/>
-      <c r="BX16" s="85"/>
-      <c r="BY16" s="85"/>
-      <c r="BZ16" s="85"/>
-      <c r="CA16" s="85"/>
-      <c r="CB16" s="85"/>
-      <c r="CC16" s="85"/>
-      <c r="CD16" s="85"/>
-      <c r="CE16" s="85"/>
-      <c r="CF16" s="85"/>
-      <c r="CG16" s="85"/>
-      <c r="CH16" s="85"/>
-      <c r="CI16" s="86"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="71"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="71"/>
+      <c r="BA16" s="71"/>
+      <c r="BB16" s="71"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="70"/>
+      <c r="BF16" s="71"/>
+      <c r="BG16" s="71"/>
+      <c r="BH16" s="71"/>
+      <c r="BI16" s="71"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
+      <c r="BL16" s="71"/>
+      <c r="BM16" s="71"/>
+      <c r="BN16" s="71"/>
+      <c r="BO16" s="71"/>
+      <c r="BP16" s="72"/>
+      <c r="BQ16" s="73"/>
+      <c r="BR16" s="74"/>
+      <c r="BS16" s="74"/>
+      <c r="BT16" s="74"/>
+      <c r="BU16" s="74"/>
+      <c r="BV16" s="74"/>
+      <c r="BW16" s="74"/>
+      <c r="BX16" s="74"/>
+      <c r="BY16" s="74"/>
+      <c r="BZ16" s="74"/>
+      <c r="CA16" s="74"/>
+      <c r="CB16" s="74"/>
+      <c r="CC16" s="74"/>
+      <c r="CD16" s="74"/>
+      <c r="CE16" s="74"/>
+      <c r="CF16" s="74"/>
+      <c r="CG16" s="74"/>
+      <c r="CH16" s="74"/>
+      <c r="CI16" s="75"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="91"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="82"/>
-      <c r="AQ17" s="82"/>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="64"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="81"/>
-      <c r="AV17" s="82"/>
-      <c r="AW17" s="82"/>
-      <c r="AX17" s="82"/>
-      <c r="AY17" s="82"/>
-      <c r="AZ17" s="82"/>
-      <c r="BA17" s="82"/>
-      <c r="BB17" s="82"/>
-      <c r="BC17" s="82"/>
-      <c r="BD17" s="83"/>
-      <c r="BE17" s="81"/>
-      <c r="BF17" s="82"/>
-      <c r="BG17" s="82"/>
-      <c r="BH17" s="82"/>
-      <c r="BI17" s="82"/>
-      <c r="BJ17" s="82"/>
-      <c r="BK17" s="82"/>
-      <c r="BL17" s="82"/>
-      <c r="BM17" s="82"/>
-      <c r="BN17" s="82"/>
-      <c r="BO17" s="82"/>
-      <c r="BP17" s="83"/>
-      <c r="BQ17" s="84"/>
-      <c r="BR17" s="85"/>
-      <c r="BS17" s="85"/>
-      <c r="BT17" s="85"/>
-      <c r="BU17" s="85"/>
-      <c r="BV17" s="85"/>
-      <c r="BW17" s="85"/>
-      <c r="BX17" s="85"/>
-      <c r="BY17" s="85"/>
-      <c r="BZ17" s="85"/>
-      <c r="CA17" s="85"/>
-      <c r="CB17" s="85"/>
-      <c r="CC17" s="85"/>
-      <c r="CD17" s="85"/>
-      <c r="CE17" s="85"/>
-      <c r="CF17" s="85"/>
-      <c r="CG17" s="85"/>
-      <c r="CH17" s="85"/>
-      <c r="CI17" s="86"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="71"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="71"/>
+      <c r="BA17" s="71"/>
+      <c r="BB17" s="71"/>
+      <c r="BC17" s="71"/>
+      <c r="BD17" s="72"/>
+      <c r="BE17" s="70"/>
+      <c r="BF17" s="71"/>
+      <c r="BG17" s="71"/>
+      <c r="BH17" s="71"/>
+      <c r="BI17" s="71"/>
+      <c r="BJ17" s="71"/>
+      <c r="BK17" s="71"/>
+      <c r="BL17" s="71"/>
+      <c r="BM17" s="71"/>
+      <c r="BN17" s="71"/>
+      <c r="BO17" s="71"/>
+      <c r="BP17" s="72"/>
+      <c r="BQ17" s="82"/>
+      <c r="BR17" s="83"/>
+      <c r="BS17" s="83"/>
+      <c r="BT17" s="83"/>
+      <c r="BU17" s="83"/>
+      <c r="BV17" s="83"/>
+      <c r="BW17" s="83"/>
+      <c r="BX17" s="83"/>
+      <c r="BY17" s="83"/>
+      <c r="BZ17" s="83"/>
+      <c r="CA17" s="83"/>
+      <c r="CB17" s="83"/>
+      <c r="CC17" s="83"/>
+      <c r="CD17" s="83"/>
+      <c r="CE17" s="83"/>
+      <c r="CF17" s="83"/>
+      <c r="CG17" s="83"/>
+      <c r="CH17" s="83"/>
+      <c r="CI17" s="84"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="53"/>
-      <c r="AM18" s="53"/>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="53"/>
-      <c r="AP18" s="53"/>
-      <c r="AQ18" s="53"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="53"/>
-      <c r="AW18" s="53"/>
-      <c r="AX18" s="53"/>
-      <c r="AY18" s="53"/>
-      <c r="AZ18" s="53"/>
-      <c r="BA18" s="53"/>
-      <c r="BB18" s="53"/>
-      <c r="BC18" s="53"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="53"/>
-      <c r="BG18" s="53"/>
-      <c r="BH18" s="53"/>
-      <c r="BI18" s="53"/>
-      <c r="BJ18" s="53"/>
-      <c r="BK18" s="53"/>
-      <c r="BL18" s="53"/>
-      <c r="BM18" s="53"/>
-      <c r="BN18" s="53"/>
-      <c r="BO18" s="53"/>
-      <c r="BP18" s="54"/>
-      <c r="BQ18" s="55"/>
-      <c r="BR18" s="56"/>
-      <c r="BS18" s="56"/>
-      <c r="BT18" s="56"/>
-      <c r="BU18" s="56"/>
-      <c r="BV18" s="56"/>
-      <c r="BW18" s="56"/>
-      <c r="BX18" s="56"/>
-      <c r="BY18" s="56"/>
-      <c r="BZ18" s="56"/>
-      <c r="CA18" s="56"/>
-      <c r="CB18" s="56"/>
-      <c r="CC18" s="56"/>
-      <c r="CD18" s="56"/>
-      <c r="CE18" s="56"/>
-      <c r="CF18" s="56"/>
-      <c r="CG18" s="56"/>
-      <c r="CH18" s="56"/>
-      <c r="CI18" s="57"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="71"/>
+      <c r="BB18" s="71"/>
+      <c r="BC18" s="71"/>
+      <c r="BD18" s="72"/>
+      <c r="BE18" s="70"/>
+      <c r="BF18" s="71"/>
+      <c r="BG18" s="71"/>
+      <c r="BH18" s="71"/>
+      <c r="BI18" s="71"/>
+      <c r="BJ18" s="71"/>
+      <c r="BK18" s="71"/>
+      <c r="BL18" s="71"/>
+      <c r="BM18" s="71"/>
+      <c r="BN18" s="71"/>
+      <c r="BO18" s="71"/>
+      <c r="BP18" s="72"/>
+      <c r="BQ18" s="85"/>
+      <c r="BR18" s="86"/>
+      <c r="BS18" s="86"/>
+      <c r="BT18" s="86"/>
+      <c r="BU18" s="86"/>
+      <c r="BV18" s="86"/>
+      <c r="BW18" s="86"/>
+      <c r="BX18" s="86"/>
+      <c r="BY18" s="86"/>
+      <c r="BZ18" s="86"/>
+      <c r="CA18" s="86"/>
+      <c r="CB18" s="86"/>
+      <c r="CC18" s="86"/>
+      <c r="CD18" s="86"/>
+      <c r="CE18" s="86"/>
+      <c r="CF18" s="86"/>
+      <c r="CG18" s="86"/>
+      <c r="CH18" s="86"/>
+      <c r="CI18" s="87"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="53"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="53"/>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="53"/>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="53"/>
-      <c r="AZ19" s="53"/>
-      <c r="BA19" s="53"/>
-      <c r="BB19" s="53"/>
-      <c r="BC19" s="53"/>
-      <c r="BD19" s="54"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="53"/>
-      <c r="BG19" s="53"/>
-      <c r="BH19" s="53"/>
-      <c r="BI19" s="53"/>
-      <c r="BJ19" s="53"/>
-      <c r="BK19" s="53"/>
-      <c r="BL19" s="53"/>
-      <c r="BM19" s="53"/>
-      <c r="BN19" s="53"/>
-      <c r="BO19" s="53"/>
-      <c r="BP19" s="54"/>
-      <c r="BQ19" s="78"/>
-      <c r="BR19" s="79"/>
-      <c r="BS19" s="79"/>
-      <c r="BT19" s="79"/>
-      <c r="BU19" s="79"/>
-      <c r="BV19" s="79"/>
-      <c r="BW19" s="79"/>
-      <c r="BX19" s="79"/>
-      <c r="BY19" s="79"/>
-      <c r="BZ19" s="79"/>
-      <c r="CA19" s="79"/>
-      <c r="CB19" s="79"/>
-      <c r="CC19" s="79"/>
-      <c r="CD19" s="79"/>
-      <c r="CE19" s="79"/>
-      <c r="CF19" s="79"/>
-      <c r="CG19" s="79"/>
-      <c r="CH19" s="79"/>
-      <c r="CI19" s="80"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="89"/>
+      <c r="AO19" s="89"/>
+      <c r="AP19" s="89"/>
+      <c r="AQ19" s="89"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="88"/>
+      <c r="AV19" s="89"/>
+      <c r="AW19" s="89"/>
+      <c r="AX19" s="89"/>
+      <c r="AY19" s="89"/>
+      <c r="AZ19" s="89"/>
+      <c r="BA19" s="89"/>
+      <c r="BB19" s="89"/>
+      <c r="BC19" s="89"/>
+      <c r="BD19" s="90"/>
+      <c r="BE19" s="88"/>
+      <c r="BF19" s="89"/>
+      <c r="BG19" s="89"/>
+      <c r="BH19" s="89"/>
+      <c r="BI19" s="89"/>
+      <c r="BJ19" s="89"/>
+      <c r="BK19" s="89"/>
+      <c r="BL19" s="89"/>
+      <c r="BM19" s="89"/>
+      <c r="BN19" s="89"/>
+      <c r="BO19" s="89"/>
+      <c r="BP19" s="90"/>
+      <c r="BQ19" s="91"/>
+      <c r="BR19" s="92"/>
+      <c r="BS19" s="92"/>
+      <c r="BT19" s="92"/>
+      <c r="BU19" s="92"/>
+      <c r="BV19" s="92"/>
+      <c r="BW19" s="92"/>
+      <c r="BX19" s="92"/>
+      <c r="BY19" s="92"/>
+      <c r="BZ19" s="92"/>
+      <c r="CA19" s="92"/>
+      <c r="CB19" s="92"/>
+      <c r="CC19" s="92"/>
+      <c r="CD19" s="92"/>
+      <c r="CE19" s="92"/>
+      <c r="CF19" s="92"/>
+      <c r="CG19" s="92"/>
+      <c r="CH19" s="92"/>
+      <c r="CI19" s="93"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="53"/>
-      <c r="BD20" s="54"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="53"/>
-      <c r="BI20" s="53"/>
-      <c r="BJ20" s="53"/>
-      <c r="BK20" s="53"/>
-      <c r="BL20" s="53"/>
-      <c r="BM20" s="53"/>
-      <c r="BN20" s="53"/>
-      <c r="BO20" s="53"/>
-      <c r="BP20" s="54"/>
-      <c r="BQ20" s="75"/>
-      <c r="BR20" s="76"/>
-      <c r="BS20" s="76"/>
-      <c r="BT20" s="76"/>
-      <c r="BU20" s="76"/>
-      <c r="BV20" s="76"/>
-      <c r="BW20" s="76"/>
-      <c r="BX20" s="76"/>
-      <c r="BY20" s="76"/>
-      <c r="BZ20" s="76"/>
-      <c r="CA20" s="76"/>
-      <c r="CB20" s="76"/>
-      <c r="CC20" s="76"/>
-      <c r="CD20" s="76"/>
-      <c r="CE20" s="76"/>
-      <c r="CF20" s="76"/>
-      <c r="CG20" s="76"/>
-      <c r="CH20" s="76"/>
-      <c r="CI20" s="77"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="71"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="71"/>
+      <c r="BA20" s="71"/>
+      <c r="BB20" s="71"/>
+      <c r="BC20" s="71"/>
+      <c r="BD20" s="72"/>
+      <c r="BE20" s="70"/>
+      <c r="BF20" s="71"/>
+      <c r="BG20" s="71"/>
+      <c r="BH20" s="71"/>
+      <c r="BI20" s="71"/>
+      <c r="BJ20" s="71"/>
+      <c r="BK20" s="71"/>
+      <c r="BL20" s="71"/>
+      <c r="BM20" s="71"/>
+      <c r="BN20" s="71"/>
+      <c r="BO20" s="71"/>
+      <c r="BP20" s="72"/>
+      <c r="BQ20" s="73"/>
+      <c r="BR20" s="74"/>
+      <c r="BS20" s="74"/>
+      <c r="BT20" s="74"/>
+      <c r="BU20" s="74"/>
+      <c r="BV20" s="74"/>
+      <c r="BW20" s="74"/>
+      <c r="BX20" s="74"/>
+      <c r="BY20" s="74"/>
+      <c r="BZ20" s="74"/>
+      <c r="CA20" s="74"/>
+      <c r="CB20" s="74"/>
+      <c r="CC20" s="74"/>
+      <c r="CD20" s="74"/>
+      <c r="CE20" s="74"/>
+      <c r="CF20" s="74"/>
+      <c r="CG20" s="74"/>
+      <c r="CH20" s="74"/>
+      <c r="CI20" s="75"/>
     </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="67"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="67"/>
-      <c r="AQ21" s="67"/>
-      <c r="AR21" s="64"/>
-      <c r="AS21" s="64"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="67"/>
-      <c r="AW21" s="67"/>
-      <c r="AX21" s="67"/>
-      <c r="AY21" s="67"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
-      <c r="BC21" s="67"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="67"/>
-      <c r="BG21" s="67"/>
-      <c r="BH21" s="67"/>
-      <c r="BI21" s="67"/>
-      <c r="BJ21" s="67"/>
-      <c r="BK21" s="67"/>
-      <c r="BL21" s="67"/>
-      <c r="BM21" s="67"/>
-      <c r="BN21" s="67"/>
-      <c r="BO21" s="67"/>
-      <c r="BP21" s="68"/>
-      <c r="BQ21" s="69"/>
-      <c r="BR21" s="70"/>
-      <c r="BS21" s="70"/>
-      <c r="BT21" s="70"/>
-      <c r="BU21" s="70"/>
-      <c r="BV21" s="70"/>
-      <c r="BW21" s="70"/>
-      <c r="BX21" s="70"/>
-      <c r="BY21" s="70"/>
-      <c r="BZ21" s="70"/>
-      <c r="CA21" s="70"/>
-      <c r="CB21" s="70"/>
-      <c r="CC21" s="70"/>
-      <c r="CD21" s="70"/>
-      <c r="CE21" s="70"/>
-      <c r="CF21" s="70"/>
-      <c r="CG21" s="70"/>
-      <c r="CH21" s="70"/>
-      <c r="CI21" s="71"/>
-    </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="64"/>
-      <c r="AS22" s="64"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="54"/>
-      <c r="BE22" s="52"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
-      <c r="BI22" s="53"/>
-      <c r="BJ22" s="53"/>
-      <c r="BK22" s="53"/>
-      <c r="BL22" s="53"/>
-      <c r="BM22" s="53"/>
-      <c r="BN22" s="53"/>
-      <c r="BO22" s="53"/>
-      <c r="BP22" s="54"/>
-      <c r="BQ22" s="55"/>
-      <c r="BR22" s="56"/>
-      <c r="BS22" s="56"/>
-      <c r="BT22" s="56"/>
-      <c r="BU22" s="56"/>
-      <c r="BV22" s="56"/>
-      <c r="BW22" s="56"/>
-      <c r="BX22" s="56"/>
-      <c r="BY22" s="56"/>
-      <c r="BZ22" s="56"/>
-      <c r="CA22" s="56"/>
-      <c r="CB22" s="56"/>
-      <c r="CC22" s="56"/>
-      <c r="CD22" s="56"/>
-      <c r="CE22" s="56"/>
-      <c r="CF22" s="56"/>
-      <c r="CG22" s="56"/>
-      <c r="CH22" s="56"/>
-      <c r="CI22" s="57"/>
-    </row>
-    <row r="23" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="50"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="36"/>
-      <c r="BA23" s="36"/>
-      <c r="BB23" s="36"/>
-      <c r="BC23" s="36"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="36"/>
-      <c r="BG23" s="36"/>
-      <c r="BH23" s="36"/>
-      <c r="BI23" s="36"/>
-      <c r="BJ23" s="36"/>
-      <c r="BK23" s="36"/>
-      <c r="BL23" s="36"/>
-      <c r="BM23" s="36"/>
-      <c r="BN23" s="36"/>
-      <c r="BO23" s="36"/>
-      <c r="BP23" s="37"/>
-      <c r="BQ23" s="38"/>
-      <c r="BR23" s="39"/>
-      <c r="BS23" s="39"/>
-      <c r="BT23" s="39"/>
-      <c r="BU23" s="39"/>
-      <c r="BV23" s="39"/>
-      <c r="BW23" s="39"/>
-      <c r="BX23" s="39"/>
-      <c r="BY23" s="39"/>
-      <c r="BZ23" s="39"/>
-      <c r="CA23" s="39"/>
-      <c r="CB23" s="39"/>
-      <c r="CC23" s="39"/>
-      <c r="CD23" s="39"/>
-      <c r="CE23" s="39"/>
-      <c r="CF23" s="39"/>
-      <c r="CG23" s="39"/>
-      <c r="CH23" s="39"/>
-      <c r="CI23" s="40"/>
+    <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="109"/>
+      <c r="AI21" s="110"/>
+      <c r="AJ21" s="111"/>
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="112"/>
+      <c r="AS21" s="112"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="98"/>
+      <c r="AW21" s="98"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="98"/>
+      <c r="AZ21" s="98"/>
+      <c r="BA21" s="98"/>
+      <c r="BB21" s="98"/>
+      <c r="BC21" s="98"/>
+      <c r="BD21" s="99"/>
+      <c r="BE21" s="97"/>
+      <c r="BF21" s="98"/>
+      <c r="BG21" s="98"/>
+      <c r="BH21" s="98"/>
+      <c r="BI21" s="98"/>
+      <c r="BJ21" s="98"/>
+      <c r="BK21" s="98"/>
+      <c r="BL21" s="98"/>
+      <c r="BM21" s="98"/>
+      <c r="BN21" s="98"/>
+      <c r="BO21" s="98"/>
+      <c r="BP21" s="99"/>
+      <c r="BQ21" s="100"/>
+      <c r="BR21" s="101"/>
+      <c r="BS21" s="101"/>
+      <c r="BT21" s="101"/>
+      <c r="BU21" s="101"/>
+      <c r="BV21" s="101"/>
+      <c r="BW21" s="101"/>
+      <c r="BX21" s="101"/>
+      <c r="BY21" s="101"/>
+      <c r="BZ21" s="101"/>
+      <c r="CA21" s="101"/>
+      <c r="CB21" s="101"/>
+      <c r="CC21" s="101"/>
+      <c r="CD21" s="101"/>
+      <c r="CE21" s="101"/>
+      <c r="CF21" s="101"/>
+      <c r="CG21" s="101"/>
+      <c r="CH21" s="101"/>
+      <c r="CI21" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="157">
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11401,159 +11285,6 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
